--- a/jam_kerja.xlsx
+++ b/jam_kerja.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$DD$119</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -399,6 +402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,12 +421,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,13 +737,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="BV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AQ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BV1" sqref="BV1:DD1"/>
+      <selection pane="bottomRight" activeCell="BY7" sqref="BY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,283 +789,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="20" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="18" t="s">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19" t="s">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="20" t="s">
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20" t="s">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20" t="s">
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20" t="s">
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20" t="s">
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20" t="s">
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20" t="s">
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="18" t="s">
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
+      <c r="BU2" s="15"/>
+      <c r="BV2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18" t="s">
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18" t="s">
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="18"/>
-      <c r="CI2" s="18"/>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18" t="s">
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="20"/>
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18" t="s">
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="18"/>
-      <c r="CU2" s="18" t="s">
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
+      <c r="CU2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" s="18"/>
-      <c r="CW2" s="18"/>
-      <c r="CX2" s="18"/>
-      <c r="CY2" s="18"/>
-      <c r="CZ2" s="18" t="s">
+      <c r="CV2" s="20"/>
+      <c r="CW2" s="20"/>
+      <c r="CX2" s="20"/>
+      <c r="CY2" s="20"/>
+      <c r="CZ2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="DA2" s="18"/>
-      <c r="DB2" s="18"/>
-      <c r="DC2" s="18"/>
-      <c r="DD2" s="18"/>
+      <c r="DA2" s="20"/>
+      <c r="DB2" s="20"/>
+      <c r="DC2" s="20"/>
+      <c r="DD2" s="20"/>
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
@@ -5292,7 +5296,7 @@
       <c r="DC22" s="5"/>
       <c r="DD22" s="5"/>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>13</v>
       </c>
@@ -6080,7 +6084,7 @@
       <c r="DC26" s="5"/>
       <c r="DD26" s="5"/>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>16</v>
       </c>
@@ -6246,7 +6250,7 @@
       <c r="DC27" s="5"/>
       <c r="DD27" s="5"/>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -6392,7 +6396,7 @@
       <c r="DC28" s="5"/>
       <c r="DD28" s="5"/>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -6538,7 +6542,7 @@
       <c r="DC29" s="5"/>
       <c r="DD29" s="5"/>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -6704,7 +6708,7 @@
       <c r="DC30" s="5"/>
       <c r="DD30" s="5"/>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -6850,7 +6854,7 @@
       <c r="DC31" s="5"/>
       <c r="DD31" s="5"/>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>21</v>
       </c>
@@ -6996,7 +7000,7 @@
       <c r="DC32" s="5"/>
       <c r="DD32" s="5"/>
     </row>
-    <row r="33" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>22</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>27</v>
       </c>
@@ -9104,7 +9108,7 @@
       <c r="DC41" s="5"/>
       <c r="DD41" s="5"/>
     </row>
-    <row r="42" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>31</v>
       </c>
@@ -9270,7 +9274,7 @@
       <c r="DC42" s="5"/>
       <c r="DD42" s="5"/>
     </row>
-    <row r="43" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>32</v>
       </c>
@@ -9718,7 +9722,7 @@
       <c r="DC45" s="5"/>
       <c r="DD45" s="5"/>
     </row>
-    <row r="46" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>34</v>
       </c>
@@ -18033,18 +18037,116 @@
       <c r="DD119" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DD119">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="40" showButton="0"/>
+    <filterColumn colId="41" showButton="0"/>
+    <filterColumn colId="42" showButton="0"/>
+    <filterColumn colId="43" showButton="0"/>
+    <filterColumn colId="44" showButton="0"/>
+    <filterColumn colId="45" showButton="0"/>
+    <filterColumn colId="46" showButton="0"/>
+    <filterColumn colId="47" showButton="0"/>
+    <filterColumn colId="48" showButton="0"/>
+    <filterColumn colId="49" showButton="0"/>
+    <filterColumn colId="50" showButton="0"/>
+    <filterColumn colId="51" showButton="0"/>
+    <filterColumn colId="52" showButton="0"/>
+    <filterColumn colId="53" showButton="0"/>
+    <filterColumn colId="54" showButton="0"/>
+    <filterColumn colId="55" showButton="0"/>
+    <filterColumn colId="56" showButton="0"/>
+    <filterColumn colId="57" showButton="0"/>
+    <filterColumn colId="58" showButton="0"/>
+    <filterColumn colId="59" showButton="0"/>
+    <filterColumn colId="60" showButton="0"/>
+    <filterColumn colId="61" showButton="0"/>
+    <filterColumn colId="62" showButton="0"/>
+    <filterColumn colId="63" showButton="0"/>
+    <filterColumn colId="64" showButton="0"/>
+    <filterColumn colId="65" showButton="0"/>
+    <filterColumn colId="66" showButton="0"/>
+    <filterColumn colId="67" showButton="0"/>
+    <filterColumn colId="68" showButton="0"/>
+    <filterColumn colId="69" showButton="0"/>
+    <filterColumn colId="70" showButton="0"/>
+    <filterColumn colId="71" showButton="0"/>
+    <filterColumn colId="73" showButton="0"/>
+    <filterColumn colId="74" showButton="0"/>
+    <filterColumn colId="75" showButton="0"/>
+    <filterColumn colId="76" showButton="0"/>
+    <filterColumn colId="77" showButton="0"/>
+    <filterColumn colId="78" showButton="0"/>
+    <filterColumn colId="79" showButton="0"/>
+    <filterColumn colId="80" showButton="0"/>
+    <filterColumn colId="81" showButton="0"/>
+    <filterColumn colId="82" showButton="0"/>
+    <filterColumn colId="83" showButton="0"/>
+    <filterColumn colId="84" showButton="0"/>
+    <filterColumn colId="85" showButton="0"/>
+    <filterColumn colId="86" showButton="0"/>
+    <filterColumn colId="87" showButton="0"/>
+    <filterColumn colId="88" showButton="0"/>
+    <filterColumn colId="89" showButton="0"/>
+    <filterColumn colId="90" showButton="0"/>
+    <filterColumn colId="91" showButton="0"/>
+    <filterColumn colId="92" showButton="0"/>
+    <filterColumn colId="93" showButton="0"/>
+    <filterColumn colId="94" showButton="0"/>
+    <filterColumn colId="95" showButton="0"/>
+    <filterColumn colId="96" showButton="0"/>
+    <filterColumn colId="97" showButton="0"/>
+    <filterColumn colId="98" showButton="0"/>
+    <filterColumn colId="99" showButton="0"/>
+    <filterColumn colId="100" showButton="0"/>
+    <filterColumn colId="101" showButton="0"/>
+    <filterColumn colId="102" showButton="0"/>
+    <filterColumn colId="103" showButton="0"/>
+    <filterColumn colId="104" showButton="0"/>
+    <filterColumn colId="105" showButton="0"/>
+    <filterColumn colId="106" showButton="0"/>
+  </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="D1:AL1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BQ2:BU2"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
@@ -18061,6 +18163,17 @@
     <mergeCell ref="AM1:BU1"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BQ2:BU2"/>
+    <mergeCell ref="D1:AL1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jam_kerja.xlsx
+++ b/jam_kerja.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ambico2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Jam Kerja" sheetId="1" r:id="rId1"/>
     <sheet name="Jadwal Kerja " sheetId="3" r:id="rId2"/>
     <sheet name="Jadwal Berpola" sheetId="2" r:id="rId3"/>
+    <sheet name="isi table pegawai_default" sheetId="4" r:id="rId4"/>
+    <sheet name="rumus create table" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="199">
   <si>
     <t>Satpam</t>
   </si>
@@ -488,6 +491,141 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pegawai_id</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>sk_msk_1</t>
+  </si>
+  <si>
+    <t>sk_kel_1</t>
+  </si>
+  <si>
+    <t>ju_msk_1</t>
+  </si>
+  <si>
+    <t>ju_kel_1</t>
+  </si>
+  <si>
+    <t>sa_msk_1</t>
+  </si>
+  <si>
+    <t>sa_kel_1</t>
+  </si>
+  <si>
+    <t>mi_msk_1</t>
+  </si>
+  <si>
+    <t>mi_kel_1</t>
+  </si>
+  <si>
+    <t>li_msk_1</t>
+  </si>
+  <si>
+    <t>li_kel_1</t>
+  </si>
+  <si>
+    <t>sk_msk_2</t>
+  </si>
+  <si>
+    <t>sk_kel_2</t>
+  </si>
+  <si>
+    <t>ju_msk_2</t>
+  </si>
+  <si>
+    <t>ju_kel_2</t>
+  </si>
+  <si>
+    <t>sa_msk_2</t>
+  </si>
+  <si>
+    <t>sa_kel_2</t>
+  </si>
+  <si>
+    <t>mi_msk_2</t>
+  </si>
+  <si>
+    <t>mi_kel_2</t>
+  </si>
+  <si>
+    <t>li_msk_2</t>
+  </si>
+  <si>
+    <t>li_kel_2</t>
+  </si>
+  <si>
+    <t>sk_msk_3</t>
+  </si>
+  <si>
+    <t>sk_kel_3</t>
+  </si>
+  <si>
+    <t>ju_msk_3</t>
+  </si>
+  <si>
+    <t>ju_kel_3</t>
+  </si>
+  <si>
+    <t>sa_msk_3</t>
+  </si>
+  <si>
+    <t>sa_kel_3</t>
+  </si>
+  <si>
+    <t>mi_msk_3</t>
+  </si>
+  <si>
+    <t>mi_kel_3</t>
+  </si>
+  <si>
+    <t>li_msk_3</t>
+  </si>
+  <si>
+    <t>li_kel_3</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>_msk_</t>
+  </si>
+  <si>
+    <t>` time not null,</t>
+  </si>
+  <si>
+    <t>_kel_</t>
+  </si>
+  <si>
+    <t>ju</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>`sk_msk_1` time NOT NULL,</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,12 +1361,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,6 +1377,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,30 +1463,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,30 +1475,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,7 +1797,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CQ8" sqref="CQ8"/>
+      <selection pane="bottomRight" activeCell="CX15" sqref="CX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,281 +1842,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="84" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="84"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="84"/>
-      <c r="BP1" s="84"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="84"/>
-      <c r="BS1" s="84"/>
-      <c r="BT1" s="84"/>
-      <c r="BU1" s="89" t="s">
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92"/>
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BV1" s="89"/>
-      <c r="BW1" s="89"/>
-      <c r="BX1" s="89"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CG1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="89"/>
-      <c r="CL1" s="89"/>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CO1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
-      <c r="CW1" s="89"/>
-      <c r="CX1" s="89"/>
-      <c r="CY1" s="89"/>
-      <c r="CZ1" s="89"/>
-      <c r="DA1" s="89"/>
-      <c r="DB1" s="89"/>
-      <c r="DC1" s="89"/>
+      <c r="BV1" s="90"/>
+      <c r="BW1" s="90"/>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="90"/>
+      <c r="BZ1" s="90"/>
+      <c r="CA1" s="90"/>
+      <c r="CB1" s="90"/>
+      <c r="CC1" s="90"/>
+      <c r="CD1" s="90"/>
+      <c r="CE1" s="90"/>
+      <c r="CF1" s="90"/>
+      <c r="CG1" s="90"/>
+      <c r="CH1" s="90"/>
+      <c r="CI1" s="90"/>
+      <c r="CJ1" s="90"/>
+      <c r="CK1" s="90"/>
+      <c r="CL1" s="90"/>
+      <c r="CM1" s="90"/>
+      <c r="CN1" s="90"/>
+      <c r="CO1" s="90"/>
+      <c r="CP1" s="90"/>
+      <c r="CQ1" s="90"/>
+      <c r="CR1" s="90"/>
+      <c r="CS1" s="90"/>
+      <c r="CT1" s="90"/>
+      <c r="CU1" s="90"/>
+      <c r="CV1" s="90"/>
+      <c r="CW1" s="90"/>
+      <c r="CX1" s="90"/>
+      <c r="CY1" s="90"/>
+      <c r="CZ1" s="90"/>
+      <c r="DA1" s="90"/>
+      <c r="DB1" s="90"/>
+      <c r="DC1" s="90"/>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83" t="s">
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83" t="s">
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83" t="s">
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83" t="s">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="84" t="s">
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84" t="s">
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84" t="s">
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84" t="s">
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84" t="s">
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84" t="s">
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="92"/>
+      <c r="BK2" s="92"/>
+      <c r="BL2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84" t="s">
+      <c r="BM2" s="92"/>
+      <c r="BN2" s="92"/>
+      <c r="BO2" s="92"/>
+      <c r="BP2" s="92"/>
+      <c r="BQ2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="84"/>
-      <c r="BT2" s="84"/>
-      <c r="BU2" s="89" t="s">
+      <c r="BR2" s="92"/>
+      <c r="BS2" s="92"/>
+      <c r="BT2" s="92"/>
+      <c r="BU2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" s="89"/>
-      <c r="BW2" s="89"/>
-      <c r="BX2" s="89"/>
-      <c r="BY2" s="89"/>
-      <c r="BZ2" s="89" t="s">
+      <c r="BV2" s="90"/>
+      <c r="BW2" s="90"/>
+      <c r="BX2" s="90"/>
+      <c r="BY2" s="90"/>
+      <c r="BZ2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="CA2" s="89"/>
-      <c r="CB2" s="89"/>
-      <c r="CC2" s="89"/>
-      <c r="CD2" s="89"/>
-      <c r="CE2" s="89" t="s">
+      <c r="CA2" s="90"/>
+      <c r="CB2" s="90"/>
+      <c r="CC2" s="90"/>
+      <c r="CD2" s="90"/>
+      <c r="CE2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="CF2" s="89"/>
-      <c r="CG2" s="89"/>
-      <c r="CH2" s="89"/>
-      <c r="CI2" s="89"/>
-      <c r="CJ2" s="89" t="s">
+      <c r="CF2" s="90"/>
+      <c r="CG2" s="90"/>
+      <c r="CH2" s="90"/>
+      <c r="CI2" s="90"/>
+      <c r="CJ2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="CK2" s="89"/>
-      <c r="CL2" s="89"/>
-      <c r="CM2" s="89"/>
-      <c r="CN2" s="89"/>
-      <c r="CO2" s="89" t="s">
+      <c r="CK2" s="90"/>
+      <c r="CL2" s="90"/>
+      <c r="CM2" s="90"/>
+      <c r="CN2" s="90"/>
+      <c r="CO2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="CP2" s="89"/>
-      <c r="CQ2" s="89"/>
-      <c r="CR2" s="89"/>
-      <c r="CS2" s="89"/>
-      <c r="CT2" s="89" t="s">
+      <c r="CP2" s="90"/>
+      <c r="CQ2" s="90"/>
+      <c r="CR2" s="90"/>
+      <c r="CS2" s="90"/>
+      <c r="CT2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="CU2" s="89"/>
-      <c r="CV2" s="89"/>
-      <c r="CW2" s="89"/>
-      <c r="CX2" s="89"/>
-      <c r="CY2" s="89" t="s">
+      <c r="CU2" s="90"/>
+      <c r="CV2" s="90"/>
+      <c r="CW2" s="90"/>
+      <c r="CX2" s="90"/>
+      <c r="CY2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="CZ2" s="89"/>
-      <c r="DA2" s="89"/>
-      <c r="DB2" s="89"/>
-      <c r="DC2" s="89"/>
+      <c r="CZ2" s="90"/>
+      <c r="DA2" s="90"/>
+      <c r="DB2" s="90"/>
+      <c r="DC2" s="90"/>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
@@ -18828,6 +18968,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:AL1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BF2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BQ2:BT2"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
@@ -18844,17 +18995,6 @@
     <mergeCell ref="AM1:BT1"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BQ2:BT2"/>
-    <mergeCell ref="D1:AL1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18917,294 +19057,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="96" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="97"/>
-      <c r="BE1" s="97"/>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="97"/>
-      <c r="BK1" s="97"/>
-      <c r="BL1" s="97"/>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="97"/>
-      <c r="BO1" s="97"/>
-      <c r="BP1" s="97"/>
-      <c r="BQ1" s="97"/>
-      <c r="BR1" s="97"/>
-      <c r="BS1" s="97"/>
-      <c r="BT1" s="97"/>
-      <c r="BU1" s="97"/>
-      <c r="BV1" s="98"/>
-      <c r="BW1" s="101" t="s">
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="115"/>
+      <c r="BP1" s="115"/>
+      <c r="BQ1" s="115"/>
+      <c r="BR1" s="115"/>
+      <c r="BS1" s="115"/>
+      <c r="BT1" s="115"/>
+      <c r="BU1" s="115"/>
+      <c r="BV1" s="116"/>
+      <c r="BW1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="BX1" s="102"/>
-      <c r="BY1" s="102"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="102"/>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="102"/>
-      <c r="CN1" s="102"/>
-      <c r="CO1" s="102"/>
-      <c r="CP1" s="102"/>
-      <c r="CQ1" s="102"/>
-      <c r="CR1" s="102"/>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="102"/>
-      <c r="CV1" s="102"/>
-      <c r="CW1" s="102"/>
-      <c r="CX1" s="102"/>
-      <c r="CY1" s="102"/>
-      <c r="CZ1" s="102"/>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="103"/>
+      <c r="BX1" s="100"/>
+      <c r="BY1" s="100"/>
+      <c r="BZ1" s="100"/>
+      <c r="CA1" s="100"/>
+      <c r="CB1" s="100"/>
+      <c r="CC1" s="100"/>
+      <c r="CD1" s="100"/>
+      <c r="CE1" s="100"/>
+      <c r="CF1" s="100"/>
+      <c r="CG1" s="100"/>
+      <c r="CH1" s="100"/>
+      <c r="CI1" s="100"/>
+      <c r="CJ1" s="100"/>
+      <c r="CK1" s="100"/>
+      <c r="CL1" s="100"/>
+      <c r="CM1" s="100"/>
+      <c r="CN1" s="100"/>
+      <c r="CO1" s="100"/>
+      <c r="CP1" s="100"/>
+      <c r="CQ1" s="100"/>
+      <c r="CR1" s="100"/>
+      <c r="CS1" s="100"/>
+      <c r="CT1" s="100"/>
+      <c r="CU1" s="100"/>
+      <c r="CV1" s="100"/>
+      <c r="CW1" s="100"/>
+      <c r="CX1" s="100"/>
+      <c r="CY1" s="100"/>
+      <c r="CZ1" s="100"/>
+      <c r="DA1" s="100"/>
+      <c r="DB1" s="100"/>
+      <c r="DC1" s="100"/>
+      <c r="DD1" s="100"/>
+      <c r="DE1" s="100"/>
+      <c r="DF1" s="101"/>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="94" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="114" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="114" t="s">
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="114" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="114" t="s">
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="114" t="s">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="109" t="s">
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="99" t="s">
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="111"/>
+      <c r="AN2" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" s="110" t="s">
+      <c r="AO2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="110" t="s">
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="110" t="s">
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="111"/>
-      <c r="BB2" s="111"/>
-      <c r="BC2" s="112"/>
-      <c r="BD2" s="110" t="s">
+      <c r="AZ2" s="121"/>
+      <c r="BA2" s="121"/>
+      <c r="BB2" s="121"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="111"/>
-      <c r="BF2" s="111"/>
-      <c r="BG2" s="111"/>
-      <c r="BH2" s="112"/>
-      <c r="BI2" s="110" t="s">
+      <c r="BE2" s="121"/>
+      <c r="BF2" s="121"/>
+      <c r="BG2" s="121"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="BJ2" s="111"/>
-      <c r="BK2" s="111"/>
-      <c r="BL2" s="111"/>
-      <c r="BM2" s="112"/>
-      <c r="BN2" s="110" t="s">
+      <c r="BJ2" s="121"/>
+      <c r="BK2" s="121"/>
+      <c r="BL2" s="121"/>
+      <c r="BM2" s="122"/>
+      <c r="BN2" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="BO2" s="111"/>
-      <c r="BP2" s="111"/>
-      <c r="BQ2" s="111"/>
-      <c r="BR2" s="112"/>
-      <c r="BS2" s="110" t="s">
+      <c r="BO2" s="121"/>
+      <c r="BP2" s="121"/>
+      <c r="BQ2" s="121"/>
+      <c r="BR2" s="122"/>
+      <c r="BS2" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" s="111"/>
-      <c r="BU2" s="111"/>
-      <c r="BV2" s="112"/>
-      <c r="BW2" s="104" t="s">
+      <c r="BT2" s="121"/>
+      <c r="BU2" s="121"/>
+      <c r="BV2" s="122"/>
+      <c r="BW2" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="BX2" s="113" t="s">
+      <c r="BX2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CA2" s="107"/>
-      <c r="CB2" s="108"/>
-      <c r="CC2" s="106" t="s">
+      <c r="BY2" s="105"/>
+      <c r="BZ2" s="105"/>
+      <c r="CA2" s="105"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="CD2" s="107"/>
-      <c r="CE2" s="107"/>
-      <c r="CF2" s="107"/>
-      <c r="CG2" s="108"/>
-      <c r="CH2" s="106" t="s">
+      <c r="CD2" s="105"/>
+      <c r="CE2" s="105"/>
+      <c r="CF2" s="105"/>
+      <c r="CG2" s="106"/>
+      <c r="CH2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="CI2" s="107"/>
-      <c r="CJ2" s="107"/>
-      <c r="CK2" s="107"/>
-      <c r="CL2" s="108"/>
-      <c r="CM2" s="106" t="s">
+      <c r="CI2" s="105"/>
+      <c r="CJ2" s="105"/>
+      <c r="CK2" s="105"/>
+      <c r="CL2" s="106"/>
+      <c r="CM2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="CN2" s="107"/>
-      <c r="CO2" s="107"/>
-      <c r="CP2" s="107"/>
-      <c r="CQ2" s="108"/>
-      <c r="CR2" s="106" t="s">
+      <c r="CN2" s="105"/>
+      <c r="CO2" s="105"/>
+      <c r="CP2" s="105"/>
+      <c r="CQ2" s="106"/>
+      <c r="CR2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="CS2" s="107"/>
-      <c r="CT2" s="107"/>
-      <c r="CU2" s="107"/>
-      <c r="CV2" s="108"/>
-      <c r="CW2" s="106" t="s">
+      <c r="CS2" s="105"/>
+      <c r="CT2" s="105"/>
+      <c r="CU2" s="105"/>
+      <c r="CV2" s="106"/>
+      <c r="CW2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="CX2" s="107"/>
-      <c r="CY2" s="107"/>
-      <c r="CZ2" s="107"/>
-      <c r="DA2" s="108"/>
-      <c r="DB2" s="106" t="s">
+      <c r="CX2" s="105"/>
+      <c r="CY2" s="105"/>
+      <c r="CZ2" s="105"/>
+      <c r="DA2" s="106"/>
+      <c r="DB2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="DC2" s="107"/>
-      <c r="DD2" s="107"/>
-      <c r="DE2" s="107"/>
-      <c r="DF2" s="108"/>
+      <c r="DC2" s="105"/>
+      <c r="DD2" s="105"/>
+      <c r="DE2" s="105"/>
+      <c r="DF2" s="106"/>
     </row>
     <row r="3" spans="1:110" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="95"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="39" t="s">
         <v>78</v>
       </c>
@@ -19310,7 +19450,7 @@
       <c r="AM3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AN3" s="100"/>
+      <c r="AN3" s="118"/>
       <c r="AO3" s="43" t="s">
         <v>78</v>
       </c>
@@ -19413,7 +19553,7 @@
       <c r="BV3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BW3" s="105"/>
+      <c r="BW3" s="103"/>
       <c r="BX3" s="30" t="s">
         <v>78</v>
       </c>
@@ -28592,10 +28732,10 @@
     </row>
     <row r="49" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -36682,22 +36822,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AM1"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="BW1:DF1"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="CH2:CL2"/>
-    <mergeCell ref="CM2:CQ2"/>
-    <mergeCell ref="CR2:CV2"/>
-    <mergeCell ref="CW2:DA2"/>
-    <mergeCell ref="DB2:DF2"/>
-    <mergeCell ref="BX2:CB2"/>
-    <mergeCell ref="CC2:CG2"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="D2:D3"/>
@@ -36713,6 +36837,22 @@
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AT2:AX2"/>
     <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BW1:DF1"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="CH2:CL2"/>
+    <mergeCell ref="CM2:CQ2"/>
+    <mergeCell ref="CR2:CV2"/>
+    <mergeCell ref="CW2:DA2"/>
+    <mergeCell ref="DB2:DF2"/>
+    <mergeCell ref="BX2:CB2"/>
+    <mergeCell ref="CC2:CG2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:AM1"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36723,8 +36863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36734,13 +36874,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="84" t="s">
         <v>152</v>
       </c>
     </row>
@@ -37095,4 +37235,1745 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AI5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>295</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="123">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="N3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S3" s="123">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="T3" s="123">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W3" s="123">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="X3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Y3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Z3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="AA3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AB3" s="123">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AC3" s="123">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD3" s="123">
+        <v>0.875</v>
+      </c>
+      <c r="AE3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AF3" s="123">
+        <v>0.25</v>
+      </c>
+      <c r="AG3" s="123">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AH3" s="123">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f>"'"&amp;TEXT(E3,"hh:mm:ss")&amp;"',"</f>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:AH5" si="0">"'"&amp;TEXT(F3,"hh:mm:ss")&amp;"',"</f>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>'11:00:00',</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
+        <v>'11:00:00',</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="0"/>
+        <v>'16:00:00',</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v>'14:00:00',</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="0"/>
+        <v>'05:00:00',</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="0"/>
+        <v>'16:00:00',</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="0"/>
+        <v>'21:00:00',</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" si="0"/>
+        <v>'22:00:00',</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="0"/>
+        <v>'06:00:00',</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" t="str">
+        <f>"  "&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1</f>
+        <v xml:space="preserve">  `sk_msk_1` time not null,</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K30" si="0">"  "&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
+        <v xml:space="preserve">  `sk_kel_1` time not null,</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_msk_1` time not null,</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_kel_1` time not null,</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_msk_1` time not null,</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_kel_1` time not null,</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_msk_1` time not null,</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_kel_1` time not null,</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_msk_1` time not null,</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_kel_1` time not null,</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sk_msk_2` time not null,</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sk_kel_2` time not null,</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_msk_2` time not null,</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_kel_2` time not null,</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_msk_2` time not null,</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_kel_2` time not null,</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_msk_2` time not null,</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_kel_2` time not null,</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_msk_2` time not null,</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_kel_2` time not null,</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sk_msk_3` time not null,</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sk_kel_3` time not null,</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_msk_3` time not null,</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `ju_kel_3` time not null,</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_msk_3` time not null,</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `sa_kel_3` time not null,</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_msk_3` time not null,</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `mi_kel_3` time not null,</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_msk_3` time not null,</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `li_kel_3` time not null,</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"  "&amp;B1&amp;C1&amp;D1&amp;E1</f>
+        <v xml:space="preserve">  `f1` time not null,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F31" si="0">"  "&amp;B2&amp;C2&amp;D2&amp;E2</f>
+        <v xml:space="preserve">  `f2` time not null,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f3` time not null,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f4` time not null,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f5` time not null,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f6` time not null,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f7` time not null,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f8` time not null,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f9` time not null,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f10` time not null,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f11` time not null,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f12` time not null,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f13` time not null,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f14` time not null,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f15` time not null,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f16` time not null,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f17` time not null,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f18` time not null,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f19` time not null,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f20` time not null,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f21` time not null,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f22` time not null,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f23` time not null,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f24` time not null,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f25` time not null,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f26` time not null,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f27` time not null,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f28` time not null,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f29` time not null,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f30` time not null,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  `f31` time not null,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>